--- a/csp-guru/csp-guru.xlsx
+++ b/csp-guru/csp-guru.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RTH\Documents\GitHub\csp-guru\csp-guru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A874F69D-7EF5-4D57-9CA5-EBD60AC25F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD50664F-75E1-4DBF-8440-F0283001899A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15330" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{CBAE575A-07C4-4BF8-8763-A77EB57639B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBAE575A-07C4-4BF8-8763-A77EB57639B5}"/>
   </bookViews>
   <sheets>
     <sheet name="csp-guru" sheetId="2" r:id="rId1"/>
@@ -4391,8 +4391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932C9696-B96D-4ED0-ACF8-5A8E00AFA897}">
   <dimension ref="A1:DB148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33787,7 +33787,9 @@
       <c r="AY141" s="1"/>
       <c r="AZ141" s="1"/>
       <c r="BA141" s="1"/>
-      <c r="BB141" s="1"/>
+      <c r="BB141" s="1">
+        <v>12</v>
+      </c>
       <c r="BC141" s="1" t="s">
         <v>605</v>
       </c>

--- a/csp-guru/csp-guru.xlsx
+++ b/csp-guru/csp-guru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RTH\Documents\GitHub\csp-guru\csp-guru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD50664F-75E1-4DBF-8440-F0283001899A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E26CEBB-1DAC-4D4A-A62B-3B3D9278067D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBAE575A-07C4-4BF8-8763-A77EB57639B5}"/>
   </bookViews>
@@ -3691,25 +3691,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3727,14 +3714,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4389,10 +4375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932C9696-B96D-4ED0-ACF8-5A8E00AFA897}">
-  <dimension ref="A1:DB148"/>
+  <dimension ref="A1:CI145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G141" sqref="G141"/>
+    <sheetView tabSelected="1" topLeftCell="CF1" workbookViewId="0">
+      <selection activeCell="CJ1" sqref="CJ1:CS1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31555,7 +31541,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="129" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>1101</v>
       </c>
@@ -31737,7 +31723,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="130" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>1106</v>
       </c>
@@ -31916,7 +31902,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="131" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>1116</v>
       </c>
@@ -32089,7 +32075,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="132" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>1123</v>
       </c>
@@ -32253,7 +32239,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="133" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>1132</v>
       </c>
@@ -32429,7 +32415,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="134" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>1137</v>
       </c>
@@ -32593,7 +32579,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="135" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>1138</v>
       </c>
@@ -32757,7 +32743,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="136" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>1142</v>
       </c>
@@ -32930,7 +32916,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="137" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>1144</v>
       </c>
@@ -33097,7 +33083,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="138" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>1146</v>
       </c>
@@ -33291,27 +33277,8 @@
       <c r="CI138" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="CJ138" s="1"/>
-      <c r="CK138" s="1"/>
-      <c r="CL138" s="1"/>
-      <c r="CM138" s="1"/>
-      <c r="CN138" s="1"/>
-      <c r="CO138" s="1"/>
-      <c r="CP138" s="1"/>
-      <c r="CQ138" s="1"/>
-      <c r="CR138" s="1"/>
-      <c r="CS138" s="1"/>
-      <c r="CT138" s="1"/>
-      <c r="CU138" s="1"/>
-      <c r="CV138" s="1"/>
-      <c r="CW138" s="1"/>
-      <c r="CX138" s="1"/>
-      <c r="CY138" s="1"/>
-      <c r="CZ138" s="1"/>
-      <c r="DA138" s="1"/>
-      <c r="DB138" s="1"/>
     </row>
-    <row r="139" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>1150</v>
       </c>
@@ -33517,27 +33484,8 @@
       <c r="CI139" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CJ139" s="1"/>
-      <c r="CK139" s="1"/>
-      <c r="CL139" s="1"/>
-      <c r="CM139" s="1"/>
-      <c r="CN139" s="1"/>
-      <c r="CO139" s="1"/>
-      <c r="CP139" s="1"/>
-      <c r="CQ139" s="1"/>
-      <c r="CR139" s="1"/>
-      <c r="CS139" s="1"/>
-      <c r="CT139" s="1"/>
-      <c r="CU139" s="1"/>
-      <c r="CV139" s="1"/>
-      <c r="CW139" s="1"/>
-      <c r="CX139" s="1"/>
-      <c r="CY139" s="1"/>
-      <c r="CZ139" s="1"/>
-      <c r="DA139" s="1"/>
-      <c r="DB139" s="1"/>
     </row>
-    <row r="140" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>1180</v>
       </c>
@@ -33677,27 +33625,8 @@
       <c r="CI140" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="CJ140" s="1"/>
-      <c r="CK140" s="1"/>
-      <c r="CL140" s="1"/>
-      <c r="CM140" s="1"/>
-      <c r="CN140" s="1"/>
-      <c r="CO140" s="1"/>
-      <c r="CP140" s="1"/>
-      <c r="CQ140" s="1"/>
-      <c r="CR140" s="1"/>
-      <c r="CS140" s="1"/>
-      <c r="CT140" s="1"/>
-      <c r="CU140" s="1"/>
-      <c r="CV140" s="1"/>
-      <c r="CW140" s="1"/>
-      <c r="CX140" s="1"/>
-      <c r="CY140" s="1"/>
-      <c r="CZ140" s="1"/>
-      <c r="DA140" s="1"/>
-      <c r="DB140" s="1"/>
     </row>
-    <row r="141" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>1158</v>
       </c>
@@ -33831,27 +33760,8 @@
       <c r="CI141" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="CJ141" s="1"/>
-      <c r="CK141" s="1"/>
-      <c r="CL141" s="1"/>
-      <c r="CM141" s="1"/>
-      <c r="CN141" s="1"/>
-      <c r="CO141" s="1"/>
-      <c r="CP141" s="1"/>
-      <c r="CQ141" s="1"/>
-      <c r="CR141" s="1"/>
-      <c r="CS141" s="1"/>
-      <c r="CT141" s="1"/>
-      <c r="CU141" s="1"/>
-      <c r="CV141" s="1"/>
-      <c r="CW141" s="1"/>
-      <c r="CX141" s="1"/>
-      <c r="CY141" s="1"/>
-      <c r="CZ141" s="1"/>
-      <c r="DA141" s="1"/>
-      <c r="DB141" s="1"/>
     </row>
-    <row r="142" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>1200</v>
       </c>
@@ -33985,27 +33895,8 @@
       <c r="CI142" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="CJ142" s="1"/>
-      <c r="CK142" s="1"/>
-      <c r="CL142" s="1"/>
-      <c r="CM142" s="1"/>
-      <c r="CN142" s="1"/>
-      <c r="CO142" s="1"/>
-      <c r="CP142" s="1"/>
-      <c r="CQ142" s="1"/>
-      <c r="CR142" s="1"/>
-      <c r="CS142" s="1"/>
-      <c r="CT142" s="1"/>
-      <c r="CU142" s="1"/>
-      <c r="CV142" s="1"/>
-      <c r="CW142" s="1"/>
-      <c r="CX142" s="1"/>
-      <c r="CY142" s="1"/>
-      <c r="CZ142" s="1"/>
-      <c r="DA142" s="1"/>
-      <c r="DB142" s="1"/>
     </row>
-    <row r="143" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>1201</v>
       </c>
@@ -34165,27 +34056,8 @@
       <c r="CI143" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="CJ143" s="1"/>
-      <c r="CK143" s="1"/>
-      <c r="CL143" s="1"/>
-      <c r="CM143" s="1"/>
-      <c r="CN143" s="1"/>
-      <c r="CO143" s="1"/>
-      <c r="CP143" s="1"/>
-      <c r="CQ143" s="1"/>
-      <c r="CR143" s="1"/>
-      <c r="CS143" s="1"/>
-      <c r="CT143" s="1"/>
-      <c r="CU143" s="1"/>
-      <c r="CV143" s="1"/>
-      <c r="CW143" s="1"/>
-      <c r="CX143" s="1"/>
-      <c r="CY143" s="1"/>
-      <c r="CZ143" s="1"/>
-      <c r="DA143" s="1"/>
-      <c r="DB143" s="1"/>
     </row>
-    <row r="144" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1186</v>
       </c>
@@ -34298,7 +34170,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="145" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1198</v>
       </c>
@@ -34323,7 +34195,7 @@
       <c r="N145" t="s">
         <v>1189</v>
       </c>
-      <c r="Q145" s="4">
+      <c r="Q145" s="3">
         <v>1800</v>
       </c>
       <c r="AL145" t="s">
@@ -34347,222 +34219,6 @@
       <c r="BP145" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="147" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
-      <c r="K147" s="1"/>
-      <c r="L147" s="1"/>
-      <c r="M147" s="1"/>
-      <c r="N147" s="1"/>
-      <c r="O147" s="1"/>
-      <c r="P147" s="1"/>
-      <c r="Q147" s="1"/>
-      <c r="R147" s="1"/>
-      <c r="S147" s="1"/>
-      <c r="T147" s="1"/>
-      <c r="U147" s="1"/>
-      <c r="V147" s="1"/>
-      <c r="W147" s="1"/>
-      <c r="X147" s="1"/>
-      <c r="Y147" s="1"/>
-      <c r="Z147" s="1"/>
-      <c r="AA147" s="1"/>
-      <c r="AB147" s="1"/>
-      <c r="AC147" s="1"/>
-      <c r="AD147" s="1"/>
-      <c r="AE147" s="1"/>
-      <c r="AF147" s="1"/>
-      <c r="AG147" s="1"/>
-      <c r="AH147" s="1"/>
-      <c r="AI147" s="1"/>
-      <c r="AJ147" s="1"/>
-      <c r="AK147" s="1"/>
-      <c r="AL147" s="1"/>
-      <c r="AM147" s="1"/>
-      <c r="AN147" s="1"/>
-      <c r="AO147" s="1"/>
-      <c r="AP147" s="1"/>
-      <c r="AQ147" s="1"/>
-      <c r="AR147" s="1"/>
-      <c r="AS147" s="1"/>
-      <c r="AT147" s="1"/>
-      <c r="AU147" s="1"/>
-      <c r="AV147" s="1"/>
-      <c r="AW147" s="1"/>
-      <c r="AX147" s="1"/>
-      <c r="AY147" s="1"/>
-      <c r="AZ147" s="1"/>
-      <c r="BA147" s="1"/>
-      <c r="BB147" s="1"/>
-      <c r="BC147" s="1"/>
-      <c r="BD147" s="1"/>
-      <c r="BE147" s="1"/>
-      <c r="BF147" s="1"/>
-      <c r="BG147" s="1"/>
-      <c r="BH147" s="1"/>
-      <c r="BI147" s="1"/>
-      <c r="BJ147" s="1"/>
-      <c r="BK147" s="1"/>
-      <c r="BL147" s="1"/>
-      <c r="BM147" s="1"/>
-      <c r="BN147" s="1"/>
-      <c r="BO147" s="1"/>
-      <c r="BP147" s="1"/>
-      <c r="BQ147" s="1"/>
-      <c r="BR147" s="1"/>
-      <c r="BS147" s="1"/>
-      <c r="BT147" s="1"/>
-      <c r="BU147" s="1"/>
-      <c r="BV147" s="1"/>
-      <c r="BW147" s="1"/>
-      <c r="BX147" s="1"/>
-      <c r="BY147" s="1"/>
-      <c r="BZ147" s="1"/>
-      <c r="CA147" s="1"/>
-      <c r="CB147" s="1"/>
-      <c r="CC147" s="1"/>
-      <c r="CD147" s="1"/>
-      <c r="CE147" s="1"/>
-      <c r="CF147" s="1"/>
-      <c r="CG147" s="1"/>
-      <c r="CH147" s="1"/>
-      <c r="CI147" s="1"/>
-      <c r="CJ147" s="1"/>
-      <c r="CK147" s="1"/>
-      <c r="CL147" s="1"/>
-      <c r="CM147" s="1"/>
-      <c r="CN147" s="1"/>
-      <c r="CO147" s="1"/>
-      <c r="CP147" s="1"/>
-      <c r="CQ147" s="1"/>
-      <c r="CR147" s="1"/>
-      <c r="CS147" s="1"/>
-      <c r="CT147" s="1"/>
-      <c r="CU147" s="1"/>
-      <c r="CV147" s="1"/>
-      <c r="CW147" s="1"/>
-      <c r="CX147" s="1"/>
-      <c r="CY147" s="1"/>
-      <c r="CZ147" s="1"/>
-      <c r="DA147" s="1"/>
-      <c r="DB147" s="1"/>
-    </row>
-    <row r="148" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
-      <c r="K148" s="1"/>
-      <c r="L148" s="1"/>
-      <c r="M148" s="1"/>
-      <c r="N148" s="1"/>
-      <c r="O148" s="1"/>
-      <c r="P148" s="1"/>
-      <c r="Q148" s="1"/>
-      <c r="R148" s="1"/>
-      <c r="S148" s="1"/>
-      <c r="T148" s="1"/>
-      <c r="U148" s="1"/>
-      <c r="V148" s="1"/>
-      <c r="W148" s="1"/>
-      <c r="X148" s="1"/>
-      <c r="Y148" s="1"/>
-      <c r="Z148" s="1"/>
-      <c r="AA148" s="1"/>
-      <c r="AB148" s="1"/>
-      <c r="AC148" s="1"/>
-      <c r="AD148" s="1"/>
-      <c r="AE148" s="1"/>
-      <c r="AF148" s="1"/>
-      <c r="AG148" s="1"/>
-      <c r="AH148" s="1"/>
-      <c r="AI148" s="1"/>
-      <c r="AJ148" s="1"/>
-      <c r="AK148" s="1"/>
-      <c r="AL148" s="1"/>
-      <c r="AM148" s="1"/>
-      <c r="AN148" s="1"/>
-      <c r="AO148" s="1"/>
-      <c r="AP148" s="1"/>
-      <c r="AQ148" s="1"/>
-      <c r="AR148" s="1"/>
-      <c r="AS148" s="1"/>
-      <c r="AT148" s="1"/>
-      <c r="AU148" s="1"/>
-      <c r="AV148" s="1"/>
-      <c r="AW148" s="1"/>
-      <c r="AX148" s="1"/>
-      <c r="AY148" s="1"/>
-      <c r="AZ148" s="1"/>
-      <c r="BA148" s="1"/>
-      <c r="BB148" s="1"/>
-      <c r="BC148" s="1"/>
-      <c r="BD148" s="1"/>
-      <c r="BE148" s="1"/>
-      <c r="BF148" s="1"/>
-      <c r="BG148" s="1"/>
-      <c r="BH148" s="1"/>
-      <c r="BI148" s="1"/>
-      <c r="BJ148" s="1"/>
-      <c r="BK148" s="1"/>
-      <c r="BL148" s="1"/>
-      <c r="BM148" s="1"/>
-      <c r="BN148" s="1"/>
-      <c r="BO148" s="1"/>
-      <c r="BP148" s="1"/>
-      <c r="BQ148" s="1"/>
-      <c r="BR148" s="1"/>
-      <c r="BS148" s="1"/>
-      <c r="BT148" s="1"/>
-      <c r="BU148" s="1"/>
-      <c r="BV148" s="1"/>
-      <c r="BW148" s="1"/>
-      <c r="BX148" s="1"/>
-      <c r="BY148" s="1"/>
-      <c r="BZ148" s="1"/>
-      <c r="CA148" s="1"/>
-      <c r="CB148" s="1"/>
-      <c r="CC148" s="1"/>
-      <c r="CD148" s="1"/>
-      <c r="CE148" s="1"/>
-      <c r="CF148" s="1"/>
-      <c r="CG148" s="1"/>
-      <c r="CH148" s="1"/>
-      <c r="CI148" s="1"/>
-      <c r="CJ148" s="1"/>
-      <c r="CK148" s="1"/>
-      <c r="CL148" s="1"/>
-      <c r="CM148" s="1"/>
-      <c r="CN148" s="1"/>
-      <c r="CO148" s="1"/>
-      <c r="CP148" s="1"/>
-      <c r="CQ148" s="1"/>
-      <c r="CR148" s="1"/>
-      <c r="CS148" s="1"/>
-      <c r="CT148" s="1"/>
-      <c r="CU148" s="1"/>
-      <c r="CV148" s="1"/>
-      <c r="CW148" s="1"/>
-      <c r="CX148" s="1"/>
-      <c r="CY148" s="1"/>
-      <c r="CZ148" s="1"/>
-      <c r="DA148" s="1"/>
-      <c r="DB148" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csp-guru/csp-guru.xlsx
+++ b/csp-guru/csp-guru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9dc17ffb94daae5c/Documents/GitHub/csp-guru/csp-guru/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="585" documentId="13_ncr:1_{093ED339-6936-4CC1-B3D4-C8350AA4EC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF7BF13C-179A-4B13-BDA8-56CE5EEFA691}"/>
+  <xr:revisionPtr revIDLastSave="587" documentId="13_ncr:1_{093ED339-6936-4CC1-B3D4-C8350AA4EC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79241E9C-34CF-472C-9BB6-6FF6E5E671E2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="1" xr2:uid="{CBAE575A-07C4-4BF8-8763-A77EB57639B5}"/>
   </bookViews>
@@ -4067,6 +4067,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4370,10 +4374,10 @@
   <dimension ref="A1:CP153"/>
   <sheetViews>
     <sheetView zoomScale="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B119" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A153" sqref="A153"/>
+      <selection pane="bottomRight" activeCell="V111" sqref="V111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36629,7 +36633,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A22E0AF-49D6-4719-823A-410668FCC514}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>

--- a/csp-guru/csp-guru.xlsx
+++ b/csp-guru/csp-guru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9dc17ffb94daae5c/Documents/GitHub/csp-guru/csp-guru/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="587" documentId="13_ncr:1_{093ED339-6936-4CC1-B3D4-C8350AA4EC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79241E9C-34CF-472C-9BB6-6FF6E5E671E2}"/>
+  <xr:revisionPtr revIDLastSave="634" documentId="13_ncr:1_{093ED339-6936-4CC1-B3D4-C8350AA4EC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{178636AD-701E-41D7-B0ED-65B37D8B5741}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="1" xr2:uid="{CBAE575A-07C4-4BF8-8763-A77EB57639B5}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="About" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'csp-guru'!$A$1:$CP$153</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'csp-guru'!$A$1:$CP$155</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'csp-guru'!$A$1:$CP$144</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7367" uniqueCount="1304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7433" uniqueCount="1341">
   <si>
     <t>Power_station</t>
   </si>
@@ -3435,9 +3435,6 @@
     <t>Albuquerque</t>
   </si>
   <si>
-    <t>https://www.nrel.gov/docs/fy01osti/28751.pdf</t>
-  </si>
-  <si>
     <t>CRS Sales</t>
   </si>
   <si>
@@ -3961,6 +3958,120 @@
   </si>
   <si>
     <t>IEA SolarPACES</t>
+  </si>
+  <si>
+    <t>NSTTF</t>
+  </si>
+  <si>
+    <t>Bernalillo</t>
+  </si>
+  <si>
+    <t>34.962,-106.509444</t>
+  </si>
+  <si>
+    <t>National Technology and Engineering Solutions of Sandia, LLC</t>
+  </si>
+  <si>
+    <t>Bats</t>
+  </si>
+  <si>
+    <t>https://www.nrel.gov/docs/fy01osti/28751.pdf; Personal communication with Jeremy Sment, Sandia</t>
+  </si>
+  <si>
+    <t>G3P3</t>
+  </si>
+  <si>
+    <t>Electric resistance heaters</t>
+  </si>
+  <si>
+    <t>34.962,-106.508333</t>
+  </si>
+  <si>
+    <t>Natural gas injection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waad Al-Shamal </t>
+  </si>
+  <si>
+    <t>31.66,38.86</t>
+  </si>
+  <si>
+    <t>Generation 3 Particle Pilot Plant Saudi</t>
+  </si>
+  <si>
+    <t>Generation 3 Particle Pilot Plant Sandia</t>
+  </si>
+  <si>
+    <t>R&amp;D funds bei DOE SETO</t>
+  </si>
+  <si>
+    <t>R&amp;D funds by SEC, KACARE, and DOE SETO</t>
+  </si>
+  <si>
+    <t>Summit Construction Inc</t>
+  </si>
+  <si>
+    <t>CARBO Ceramics</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>Particle</t>
+  </si>
+  <si>
+    <t>sCO2 Brayton</t>
+  </si>
+  <si>
+    <t>Vacuum Process Engineering</t>
+  </si>
+  <si>
+    <t>Tower-integrated</t>
+  </si>
+  <si>
+    <t>Prototype</t>
+  </si>
+  <si>
+    <t>https://energy.sandia.gov/wp-content/uploads/dlm_uploads/2019/misc/08/G3P3/G3P3_for_public_v2.pdf;  Personal communication with Jeremy Sment, Sandia</t>
+  </si>
+  <si>
+    <t>Saudi Elecricity Company</t>
+  </si>
+  <si>
+    <t>KSA</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>White Sand</t>
+  </si>
+  <si>
+    <t>SGT-50</t>
+  </si>
+  <si>
+    <t>Air Brayton</t>
+  </si>
+  <si>
+    <t>Solex thermal science</t>
+  </si>
+  <si>
+    <t>Sensible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermal energy stoarge bin using Soild particle </t>
+  </si>
+  <si>
+    <t>King Saud University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obstructed flow </t>
+  </si>
+  <si>
+    <t>Personal communication with Jeremy Sment, Sandia</t>
+  </si>
+  <si>
+    <t>Waad Al-Shama ISCC</t>
   </si>
 </sst>
 </file>
@@ -3970,7 +4081,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4000,6 +4111,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4041,7 +4158,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -4050,6 +4167,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -4371,13 +4492,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932C9696-B96D-4ED0-ACF8-5A8E00AFA897}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:CP153"/>
+  <dimension ref="A1:CP155"/>
   <sheetViews>
     <sheetView zoomScale="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E119" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V111" sqref="V111"/>
+      <selection pane="bottomRight" activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4490,7 +4611,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -4499,13 +4620,13 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="I1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="J1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -4514,10 +4635,10 @@
         <v>7</v>
       </c>
       <c r="M1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="O1" t="s">
         <v>8</v>
@@ -4544,10 +4665,10 @@
         <v>15</v>
       </c>
       <c r="W1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="Y1" t="s">
         <v>16</v>
@@ -4616,7 +4737,7 @@
         <v>37</v>
       </c>
       <c r="AU1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AV1" t="s">
         <v>38</v>
@@ -4715,7 +4836,7 @@
         <v>69</v>
       </c>
       <c r="CB1" s="5" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="CC1" t="s">
         <v>70</v>
@@ -4774,7 +4895,7 @@
         <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F2" t="s">
         <v>87</v>
@@ -4979,7 +5100,7 @@
         <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F3" t="s">
         <v>87</v>
@@ -5181,7 +5302,7 @@
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F4" t="s">
         <v>87</v>
@@ -5366,7 +5487,7 @@
         <v>1.2794444444444444</v>
       </c>
       <c r="CP4" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="5" spans="1:94" hidden="1" x14ac:dyDescent="0.35">
@@ -5383,7 +5504,7 @@
         <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F5" t="s">
         <v>87</v>
@@ -5568,7 +5689,7 @@
         <v>1.2794444444444444</v>
       </c>
       <c r="CP5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="6" spans="1:94" hidden="1" x14ac:dyDescent="0.35">
@@ -5585,7 +5706,7 @@
         <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F6" t="s">
         <v>87</v>
@@ -5770,7 +5891,7 @@
         <v>1.3916666666666666</v>
       </c>
       <c r="CP6" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="7" spans="1:94" hidden="1" x14ac:dyDescent="0.35">
@@ -5787,7 +5908,7 @@
         <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F7" t="s">
         <v>87</v>
@@ -5972,7 +6093,7 @@
         <v>1.0444444444444445</v>
       </c>
       <c r="CP7" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="8" spans="1:94" hidden="1" x14ac:dyDescent="0.35">
@@ -5989,7 +6110,7 @@
         <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F8" t="s">
         <v>87</v>
@@ -6174,7 +6295,7 @@
         <v>1.0793333333333335</v>
       </c>
       <c r="CP8" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="9" spans="1:94" hidden="1" x14ac:dyDescent="0.35">
@@ -6191,7 +6312,7 @@
         <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F9" t="s">
         <v>87</v>
@@ -6376,7 +6497,7 @@
         <v>0.96737499999999998</v>
       </c>
       <c r="CP9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="10" spans="1:94" hidden="1" x14ac:dyDescent="0.35">
@@ -6393,7 +6514,7 @@
         <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F10" t="s">
         <v>119</v>
@@ -6595,7 +6716,7 @@
         <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F11" t="s">
         <v>135</v>
@@ -6806,7 +6927,7 @@
         <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F12" t="s">
         <v>119</v>
@@ -7047,7 +7168,7 @@
         <v>163</v>
       </c>
       <c r="E13" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F13" t="s">
         <v>119</v>
@@ -7273,7 +7394,7 @@
         <v>163</v>
       </c>
       <c r="E14" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F14" t="s">
         <v>119</v>
@@ -7526,7 +7647,7 @@
         <v>110</v>
       </c>
       <c r="E15" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F15" t="s">
         <v>119</v>
@@ -7715,7 +7836,7 @@
         <v>163</v>
       </c>
       <c r="E16" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F16" t="s">
         <v>119</v>
@@ -7968,7 +8089,7 @@
         <v>86</v>
       </c>
       <c r="E17" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F17" t="s">
         <v>135</v>
@@ -8154,7 +8275,7 @@
         <v>163</v>
       </c>
       <c r="E18" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F18" t="s">
         <v>119</v>
@@ -8395,7 +8516,7 @@
         <v>163</v>
       </c>
       <c r="E19" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -8630,7 +8751,7 @@
         <v>163</v>
       </c>
       <c r="E20" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F20" t="s">
         <v>119</v>
@@ -8856,7 +8977,7 @@
         <v>163</v>
       </c>
       <c r="E21" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -9063,7 +9184,7 @@
         <v>163</v>
       </c>
       <c r="E22" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F22" t="s">
         <v>119</v>
@@ -9298,7 +9419,7 @@
         <v>163</v>
       </c>
       <c r="E23" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F23" t="s">
         <v>119</v>
@@ -9533,7 +9654,7 @@
         <v>163</v>
       </c>
       <c r="E24" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F24" t="s">
         <v>119</v>
@@ -9768,7 +9889,7 @@
         <v>257</v>
       </c>
       <c r="E25" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F25" t="s">
         <v>119</v>
@@ -9988,7 +10109,7 @@
         <v>163</v>
       </c>
       <c r="E26" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F26" t="s">
         <v>119</v>
@@ -10241,7 +10362,7 @@
         <v>163</v>
       </c>
       <c r="E27" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F27" t="s">
         <v>119</v>
@@ -10494,7 +10615,7 @@
         <v>163</v>
       </c>
       <c r="E28" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F28" t="s">
         <v>119</v>
@@ -10747,7 +10868,7 @@
         <v>163</v>
       </c>
       <c r="E29" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F29" t="s">
         <v>119</v>
@@ -10985,7 +11106,7 @@
         <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F30" t="s">
         <v>135</v>
@@ -11161,7 +11282,7 @@
         <v>86</v>
       </c>
       <c r="E31" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F31" t="s">
         <v>119</v>
@@ -11177,7 +11298,7 @@
         <v>0.23592085235920851</v>
       </c>
       <c r="K31" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="O31" t="s">
         <v>89</v>
@@ -11375,7 +11496,7 @@
         <v>163</v>
       </c>
       <c r="E32" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F32" t="s">
         <v>119</v>
@@ -11613,7 +11734,7 @@
         <v>345</v>
       </c>
       <c r="E33" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F33" t="s">
         <v>119</v>
@@ -11793,7 +11914,7 @@
         <v>163</v>
       </c>
       <c r="E34" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F34" t="s">
         <v>119</v>
@@ -12034,7 +12155,7 @@
         <v>163</v>
       </c>
       <c r="E35" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F35" t="s">
         <v>119</v>
@@ -12278,7 +12399,7 @@
         <v>163</v>
       </c>
       <c r="E36" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F36" t="s">
         <v>119</v>
@@ -12507,7 +12628,7 @@
         <v>163</v>
       </c>
       <c r="E37" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F37" t="s">
         <v>119</v>
@@ -12748,7 +12869,7 @@
         <v>391</v>
       </c>
       <c r="E38" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F38" t="s">
         <v>119</v>
@@ -12764,7 +12885,7 @@
         <v>0.3139269406392694</v>
       </c>
       <c r="K38" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="L38">
         <v>472</v>
@@ -12966,7 +13087,7 @@
         <v>401</v>
       </c>
       <c r="E39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F39" t="s">
         <v>119</v>
@@ -12975,7 +13096,7 @@
         <v>20</v>
       </c>
       <c r="K39" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="L39">
         <v>130</v>
@@ -13174,7 +13295,7 @@
         <v>409</v>
       </c>
       <c r="E40" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F40" t="s">
         <v>119</v>
@@ -13190,7 +13311,7 @@
         <v>0.19406392694063929</v>
       </c>
       <c r="K40" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="L40">
         <v>150</v>
@@ -13377,7 +13498,7 @@
         <v>163</v>
       </c>
       <c r="E41" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F41" t="s">
         <v>119</v>
@@ -13807,7 +13928,7 @@
         <v>163</v>
       </c>
       <c r="E43" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F43" t="s">
         <v>119</v>
@@ -14042,7 +14163,7 @@
         <v>163</v>
       </c>
       <c r="E44" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F44" t="s">
         <v>119</v>
@@ -14295,7 +14416,7 @@
         <v>163</v>
       </c>
       <c r="E45" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F45" t="s">
         <v>119</v>
@@ -14548,7 +14669,7 @@
         <v>163</v>
       </c>
       <c r="E46" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F46" t="s">
         <v>119</v>
@@ -14786,7 +14907,7 @@
         <v>163</v>
       </c>
       <c r="E47" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F47" t="s">
         <v>119</v>
@@ -15030,7 +15151,7 @@
         <v>163</v>
       </c>
       <c r="E48" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F48" t="s">
         <v>119</v>
@@ -15280,7 +15401,7 @@
         <v>163</v>
       </c>
       <c r="E49" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F49" t="s">
         <v>119</v>
@@ -15527,7 +15648,7 @@
         <v>163</v>
       </c>
       <c r="E50" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F50" t="s">
         <v>119</v>
@@ -15774,7 +15895,7 @@
         <v>469</v>
       </c>
       <c r="E51" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F51" t="s">
         <v>119</v>
@@ -15972,7 +16093,7 @@
         <v>163</v>
       </c>
       <c r="E52" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F52" t="s">
         <v>119</v>
@@ -15988,7 +16109,7 @@
         <v>0.22374429223744294</v>
       </c>
       <c r="K52" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="L52">
         <v>44</v>
@@ -16223,7 +16344,7 @@
         <v>487</v>
       </c>
       <c r="E53" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F53" t="s">
         <v>119</v>
@@ -16419,7 +16540,7 @@
         <v>163</v>
       </c>
       <c r="E54" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F54" t="s">
         <v>119</v>
@@ -16672,7 +16793,7 @@
         <v>505</v>
       </c>
       <c r="E55" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F55" t="s">
         <v>119</v>
@@ -16837,7 +16958,7 @@
         <v>163</v>
       </c>
       <c r="E56" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F56" t="s">
         <v>119</v>
@@ -17078,7 +17199,7 @@
         <v>163</v>
       </c>
       <c r="E57" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F57" t="s">
         <v>119</v>
@@ -17319,7 +17440,7 @@
         <v>163</v>
       </c>
       <c r="E58" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F58" t="s">
         <v>119</v>
@@ -17563,7 +17684,7 @@
         <v>163</v>
       </c>
       <c r="E59" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F59" t="s">
         <v>119</v>
@@ -17807,7 +17928,7 @@
         <v>163</v>
       </c>
       <c r="E60" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F60" t="s">
         <v>119</v>
@@ -18238,7 +18359,7 @@
         <v>163</v>
       </c>
       <c r="E62" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F62" t="s">
         <v>119</v>
@@ -18470,7 +18591,7 @@
         <v>345</v>
       </c>
       <c r="E63" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F63" t="s">
         <v>119</v>
@@ -18665,7 +18786,7 @@
         <v>163</v>
       </c>
       <c r="E64" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F64" t="s">
         <v>119</v>
@@ -18909,7 +19030,7 @@
         <v>163</v>
       </c>
       <c r="E65" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F65" t="s">
         <v>119</v>
@@ -19129,7 +19250,7 @@
         <v>163</v>
       </c>
       <c r="E66" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F66" t="s">
         <v>119</v>
@@ -19364,7 +19485,7 @@
         <v>163</v>
       </c>
       <c r="E67" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F67" t="s">
         <v>119</v>
@@ -19605,7 +19726,7 @@
         <v>163</v>
       </c>
       <c r="E68" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F68" t="s">
         <v>119</v>
@@ -19846,7 +19967,7 @@
         <v>163</v>
       </c>
       <c r="E69" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F69" t="s">
         <v>119</v>
@@ -20087,7 +20208,7 @@
         <v>163</v>
       </c>
       <c r="E70" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F70" t="s">
         <v>119</v>
@@ -20328,7 +20449,7 @@
         <v>572</v>
       </c>
       <c r="E71" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F71" t="s">
         <v>119</v>
@@ -20545,7 +20666,7 @@
         <v>163</v>
       </c>
       <c r="E72" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F72" t="s">
         <v>119</v>
@@ -20783,7 +20904,7 @@
         <v>257</v>
       </c>
       <c r="E73" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F73" t="s">
         <v>119</v>
@@ -20982,7 +21103,7 @@
         <v>163</v>
       </c>
       <c r="E74" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F74" t="s">
         <v>119</v>
@@ -21226,7 +21347,7 @@
         <v>163</v>
       </c>
       <c r="E75" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F75" t="s">
         <v>119</v>
@@ -21461,7 +21582,7 @@
         <v>345</v>
       </c>
       <c r="E76" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F76" t="s">
         <v>119</v>
@@ -21696,7 +21817,7 @@
         <v>345</v>
       </c>
       <c r="E77" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F77" t="s">
         <v>135</v>
@@ -21878,7 +21999,7 @@
         <v>630</v>
       </c>
       <c r="E78" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F78" t="s">
         <v>119</v>
@@ -22107,7 +22228,7 @@
         <v>163</v>
       </c>
       <c r="E79" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F79" t="s">
         <v>119</v>
@@ -22348,7 +22469,7 @@
         <v>163</v>
       </c>
       <c r="E80" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F80" t="s">
         <v>119</v>
@@ -22589,7 +22710,7 @@
         <v>86</v>
       </c>
       <c r="E81" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F81" t="s">
         <v>119</v>
@@ -22830,7 +22951,7 @@
         <v>487</v>
       </c>
       <c r="E82" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F82" t="s">
         <v>119</v>
@@ -23065,7 +23186,7 @@
         <v>163</v>
       </c>
       <c r="E83" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F83" t="s">
         <v>119</v>
@@ -23297,7 +23418,7 @@
         <v>163</v>
       </c>
       <c r="E84" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F84" t="s">
         <v>119</v>
@@ -23529,7 +23650,7 @@
         <v>391</v>
       </c>
       <c r="E85" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F85" t="s">
         <v>119</v>
@@ -23743,7 +23864,7 @@
         <v>687</v>
       </c>
       <c r="E86" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F86" t="s">
         <v>119</v>
@@ -23759,7 +23880,7 @@
         <v>0.1556662515566625</v>
       </c>
       <c r="K86" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="L86">
         <v>203</v>
@@ -23958,7 +24079,7 @@
         <v>345</v>
       </c>
       <c r="E87" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F87" t="s">
         <v>119</v>
@@ -24162,7 +24283,7 @@
         <v>86</v>
       </c>
       <c r="E88" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F88" t="s">
         <v>119</v>
@@ -24391,7 +24512,7 @@
         <v>86</v>
       </c>
       <c r="E89" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F89" t="s">
         <v>119</v>
@@ -24620,7 +24741,7 @@
         <v>345</v>
       </c>
       <c r="E90" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F90" t="s">
         <v>119</v>
@@ -24858,7 +24979,7 @@
         <v>86</v>
       </c>
       <c r="E91" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F91" t="s">
         <v>119</v>
@@ -25078,7 +25199,7 @@
         <v>257</v>
       </c>
       <c r="E92" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F92" t="s">
         <v>119</v>
@@ -25262,7 +25383,7 @@
         <v>86</v>
       </c>
       <c r="E93" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F93" t="s">
         <v>119</v>
@@ -25488,7 +25609,7 @@
         <v>762</v>
       </c>
       <c r="E94" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="F94" t="s">
         <v>119</v>
@@ -25711,7 +25832,7 @@
         <v>391</v>
       </c>
       <c r="E95" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F95" t="s">
         <v>119</v>
@@ -25935,7 +26056,7 @@
         <v>86</v>
       </c>
       <c r="E96" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F96" t="s">
         <v>119</v>
@@ -26121,7 +26242,7 @@
         <v>185</v>
       </c>
       <c r="E97" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F97" t="s">
         <v>119</v>
@@ -26130,7 +26251,7 @@
         <v>5.5</v>
       </c>
       <c r="K97" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="O97" t="s">
         <v>789</v>
@@ -26328,7 +26449,7 @@
         <v>762</v>
       </c>
       <c r="E98" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="F98" t="s">
         <v>119</v>
@@ -26561,7 +26682,7 @@
         <v>487</v>
       </c>
       <c r="E99" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F99" t="s">
         <v>119</v>
@@ -26738,7 +26859,7 @@
         <v>762</v>
       </c>
       <c r="E100" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="F100" t="s">
         <v>119</v>
@@ -26958,7 +27079,7 @@
         <v>487</v>
       </c>
       <c r="E101" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F101" t="s">
         <v>119</v>
@@ -27355,7 +27476,7 @@
         <v>839</v>
       </c>
       <c r="E103" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F103" t="s">
         <v>119</v>
@@ -27371,7 +27492,7 @@
         <v>0.32343987823439879</v>
       </c>
       <c r="K103" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="L103">
         <v>394</v>
@@ -27760,7 +27881,7 @@
         <v>487</v>
       </c>
       <c r="E105" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F105" t="s">
         <v>119</v>
@@ -28013,7 +28134,7 @@
         <v>487</v>
       </c>
       <c r="E106" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F106" t="s">
         <v>119</v>
@@ -28039,7 +28160,7 @@
         <v>3.3333333333333335</v>
       </c>
       <c r="O106" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="P106">
         <v>2015</v>
@@ -28205,7 +28326,7 @@
         <v>1.8888888888888888</v>
       </c>
       <c r="CP106" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="107" spans="1:94" hidden="1" x14ac:dyDescent="0.35">
@@ -28222,7 +28343,7 @@
         <v>762</v>
       </c>
       <c r="E107" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="F107" t="s">
         <v>119</v>
@@ -28448,7 +28569,7 @@
         <v>778</v>
       </c>
       <c r="E108" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F108" t="s">
         <v>119</v>
@@ -28458,7 +28579,7 @@
       </c>
       <c r="J108" s="2"/>
       <c r="K108" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="L108">
         <v>1390</v>
@@ -28623,7 +28744,7 @@
         <v>391</v>
       </c>
       <c r="E109" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F109" t="s">
         <v>119</v>
@@ -28847,7 +28968,7 @@
         <v>391</v>
       </c>
       <c r="E110" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F110" t="s">
         <v>119</v>
@@ -29068,7 +29189,7 @@
         <v>487</v>
       </c>
       <c r="E111" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F111" t="s">
         <v>119</v>
@@ -29309,7 +29430,7 @@
         <v>487</v>
       </c>
       <c r="E112" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F112" t="s">
         <v>119</v>
@@ -29550,7 +29671,7 @@
         <v>762</v>
       </c>
       <c r="E113" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="F113" t="s">
         <v>119</v>
@@ -29761,7 +29882,7 @@
         <v>107</v>
       </c>
       <c r="E114" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F114" t="s">
         <v>119</v>
@@ -29974,7 +30095,7 @@
         <v>107</v>
       </c>
       <c r="E115" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F115" t="s">
         <v>119</v>
@@ -30152,7 +30273,7 @@
         <v>98</v>
       </c>
       <c r="BW115" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="BX115" t="s">
         <v>940</v>
@@ -30194,7 +30315,7 @@
         <v>487</v>
       </c>
       <c r="E116" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F116" t="s">
         <v>119</v>
@@ -30231,7 +30352,7 @@
         <v>945</v>
       </c>
       <c r="U116" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="V116">
         <v>1789</v>
@@ -30282,7 +30403,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AM116" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AN116" t="s">
         <v>487</v>
@@ -30315,7 +30436,7 @@
         <v>288</v>
       </c>
       <c r="AX116" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AY116" t="s">
         <v>487</v>
@@ -30418,7 +30539,7 @@
         <v>50</v>
       </c>
       <c r="CP116" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="117" spans="1:94" hidden="1" x14ac:dyDescent="0.35">
@@ -30435,7 +30556,7 @@
         <v>487</v>
       </c>
       <c r="E117" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F117" t="s">
         <v>119</v>
@@ -30664,7 +30785,7 @@
         <v>469</v>
       </c>
       <c r="E118" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F118" t="s">
         <v>119</v>
@@ -30860,7 +30981,7 @@
     </row>
     <row r="119" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B119" t="s">
         <v>85</v>
@@ -30872,7 +30993,7 @@
         <v>778</v>
       </c>
       <c r="E119" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F119" t="s">
         <v>973</v>
@@ -30881,7 +31002,7 @@
         <v>43</v>
       </c>
       <c r="K119" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="L119">
         <v>605</v>
@@ -31029,7 +31150,7 @@
         <v>85</v>
       </c>
       <c r="CP119" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="120" spans="1:94" hidden="1" x14ac:dyDescent="0.35">
@@ -31046,7 +31167,7 @@
         <v>762</v>
       </c>
       <c r="E120" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="F120" t="s">
         <v>119</v>
@@ -31259,7 +31380,7 @@
         <v>487</v>
       </c>
       <c r="E121" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F121" t="s">
         <v>119</v>
@@ -31480,7 +31601,7 @@
         <v>487</v>
       </c>
       <c r="E122" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F122" t="s">
         <v>119</v>
@@ -31709,7 +31830,7 @@
         <v>1013</v>
       </c>
       <c r="E123" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F123" t="s">
         <v>119</v>
@@ -31893,7 +32014,7 @@
     </row>
     <row r="124" spans="1:94" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B124" t="s">
         <v>85</v>
@@ -31905,7 +32026,7 @@
         <v>1024</v>
       </c>
       <c r="E124" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F124" t="s">
         <v>119</v>
@@ -32107,7 +32228,7 @@
         <v>487</v>
       </c>
       <c r="E125" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F125" t="s">
         <v>119</v>
@@ -32258,7 +32379,7 @@
         <v>782</v>
       </c>
       <c r="BJ125" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="BK125" t="s">
         <v>487</v>
@@ -32330,7 +32451,7 @@
         <v>487</v>
       </c>
       <c r="E126" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F126" t="s">
         <v>119</v>
@@ -32448,7 +32569,7 @@
         <v>288</v>
       </c>
       <c r="AX126" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AY126" t="s">
         <v>487</v>
@@ -32571,7 +32692,7 @@
         <v>630</v>
       </c>
       <c r="E127" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F127" t="s">
         <v>119</v>
@@ -32718,7 +32839,7 @@
         <v>98</v>
       </c>
       <c r="BW127" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="BX127" t="s">
         <v>1085</v>
@@ -32733,7 +32854,7 @@
         <v>70000</v>
       </c>
       <c r="CP127" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="128" spans="1:94" x14ac:dyDescent="0.35">
@@ -32750,7 +32871,7 @@
         <v>630</v>
       </c>
       <c r="E128" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F128" t="s">
         <v>973</v>
@@ -32906,12 +33027,12 @@
         <v>1090</v>
       </c>
       <c r="CP128" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="129" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B129" t="s">
         <v>85</v>
@@ -32923,13 +33044,13 @@
         <v>630</v>
       </c>
       <c r="E129" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F129" t="s">
         <v>973</v>
       </c>
       <c r="K129" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="L129">
         <v>250</v>
@@ -33112,7 +33233,7 @@
         <v>345</v>
       </c>
       <c r="E130" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F130" t="s">
         <v>119</v>
@@ -33128,7 +33249,7 @@
         <v>0.11415525114155251</v>
       </c>
       <c r="K130" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="L130">
         <v>210</v>
@@ -33306,7 +33427,7 @@
         <v>86</v>
       </c>
       <c r="E131" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F131" t="s">
         <v>135</v>
@@ -33486,7 +33607,7 @@
         <v>86</v>
       </c>
       <c r="E132" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F132" t="s">
         <v>135</v>
@@ -33653,7 +33774,7 @@
         <v>86</v>
       </c>
       <c r="E133" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F133" t="s">
         <v>87</v>
@@ -33836,7 +33957,7 @@
         <v>86</v>
       </c>
       <c r="E134" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F134" t="s">
         <v>87</v>
@@ -33994,7 +34115,7 @@
         <v>1125</v>
       </c>
       <c r="B135" t="s">
-        <v>85</v>
+        <v>1303</v>
       </c>
       <c r="C135">
         <v>137</v>
@@ -34003,7 +34124,7 @@
         <v>86</v>
       </c>
       <c r="E135" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F135" t="s">
         <v>119</v>
@@ -34014,38 +34135,29 @@
       <c r="K135" t="s">
         <v>167</v>
       </c>
-      <c r="O135" t="s">
-        <v>85</v>
+      <c r="P135">
+        <v>1976</v>
       </c>
       <c r="Q135">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="R135" t="s">
         <v>1126</v>
       </c>
       <c r="S135" t="s">
-        <v>85</v>
+        <v>1304</v>
       </c>
       <c r="T135" t="s">
         <v>1127</v>
       </c>
       <c r="U135" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y135" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE135" t="s">
-        <v>85</v>
+        <v>1305</v>
       </c>
       <c r="AI135" t="s">
         <v>85</v>
       </c>
-      <c r="AJ135" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK135" t="s">
-        <v>85</v>
+      <c r="AL135">
+        <v>0.17</v>
       </c>
       <c r="AM135" t="s">
         <v>1121</v>
@@ -34054,10 +34166,10 @@
         <v>98</v>
       </c>
       <c r="AO135" t="s">
-        <v>85</v>
+        <v>1306</v>
       </c>
       <c r="AP135" t="s">
-        <v>85</v>
+        <v>1121</v>
       </c>
       <c r="AQ135" t="s">
         <v>85</v>
@@ -34086,10 +34198,10 @@
       <c r="AY135" t="s">
         <v>85</v>
       </c>
-      <c r="AZ135" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA135" t="s">
+      <c r="BB135" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC135" t="s">
         <v>85</v>
       </c>
       <c r="BD135" t="s">
@@ -34098,12 +34210,12 @@
       <c r="BE135" t="s">
         <v>85</v>
       </c>
-      <c r="BF135" t="s">
-        <v>85</v>
-      </c>
       <c r="BG135" t="s">
         <v>85</v>
       </c>
+      <c r="BH135" t="s">
+        <v>85</v>
+      </c>
       <c r="BI135" t="s">
         <v>85</v>
       </c>
@@ -34114,51 +34226,42 @@
         <v>85</v>
       </c>
       <c r="BL135" t="s">
-        <v>85</v>
-      </c>
-      <c r="BM135" t="s">
-        <v>85</v>
-      </c>
-      <c r="BN135" t="s">
         <v>85</v>
       </c>
       <c r="BO135">
         <v>63</v>
       </c>
-      <c r="BS135" t="s">
-        <v>85</v>
-      </c>
-      <c r="BT135" t="s">
+      <c r="BQ135" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR135" t="s">
         <v>85</v>
       </c>
       <c r="BU135" t="s">
-        <v>85</v>
+        <v>1121</v>
       </c>
       <c r="BV135" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="BW135" t="s">
-        <v>85</v>
+        <v>1303</v>
       </c>
       <c r="BX135" t="s">
-        <v>85</v>
+        <v>1307</v>
       </c>
       <c r="BY135" t="s">
-        <v>85</v>
-      </c>
-      <c r="BZ135" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="CC135">
         <v>222</v>
       </c>
       <c r="CP135" t="s">
-        <v>1128</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="136" spans="1:94" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B136" t="s">
         <v>85</v>
@@ -34170,7 +34273,7 @@
         <v>163</v>
       </c>
       <c r="E136" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F136" t="s">
         <v>119</v>
@@ -34333,12 +34436,12 @@
         <v>120</v>
       </c>
       <c r="CP136" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="137" spans="1:94" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B137" t="s">
         <v>85</v>
@@ -34350,7 +34453,7 @@
         <v>107</v>
       </c>
       <c r="E137" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F137" t="s">
         <v>119</v>
@@ -34503,12 +34606,12 @@
         <v>1600</v>
       </c>
       <c r="CP137" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="138" spans="1:94" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B138" t="s">
         <v>85</v>
@@ -34565,13 +34668,13 @@
         <v>85</v>
       </c>
       <c r="AM138" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AN138" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO138" t="s">
         <v>1134</v>
-      </c>
-      <c r="AN138" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO138" t="s">
-        <v>1135</v>
       </c>
       <c r="AP138" t="s">
         <v>85</v>
@@ -34667,12 +34770,12 @@
         <v>1.82</v>
       </c>
       <c r="CP138" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="139" spans="1:94" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B139" t="s">
         <v>85</v>
@@ -34684,7 +34787,7 @@
         <v>86</v>
       </c>
       <c r="E139" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F139" t="s">
         <v>135</v>
@@ -34711,10 +34814,10 @@
         <v>85</v>
       </c>
       <c r="T139" t="s">
+        <v>1137</v>
+      </c>
+      <c r="U139" t="s">
         <v>1138</v>
-      </c>
-      <c r="U139" t="s">
-        <v>1139</v>
       </c>
       <c r="Y139" t="s">
         <v>85</v>
@@ -34735,19 +34838,19 @@
         <v>0.05</v>
       </c>
       <c r="AM139" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="AN139" t="s">
         <v>419</v>
       </c>
       <c r="AO139" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="AP139" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="AQ139" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AR139" t="s">
         <v>85</v>
@@ -34813,7 +34916,7 @@
         <v>85</v>
       </c>
       <c r="BS139" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="BT139" t="s">
         <v>419</v>
@@ -34858,10 +34961,10 @@
     </row>
     <row r="140" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B140" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C140">
         <v>143</v>
@@ -34870,7 +34973,7 @@
         <v>487</v>
       </c>
       <c r="E140" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F140" t="s">
         <v>973</v>
@@ -34889,7 +34992,7 @@
         <v>0.23858447488584475</v>
       </c>
       <c r="K140" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="L140">
         <v>600</v>
@@ -34903,7 +35006,7 @@
         <v>6</v>
       </c>
       <c r="O140" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="P140">
         <v>2022</v>
@@ -34918,10 +35021,10 @@
         <v>807</v>
       </c>
       <c r="T140" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="U140" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V140">
         <v>1550</v>
@@ -34951,13 +35054,13 @@
         <v>173</v>
       </c>
       <c r="AJ140" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AL140">
         <v>3.62</v>
       </c>
       <c r="AM140" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AN140" t="s">
         <v>487</v>
@@ -34966,7 +35069,7 @@
         <v>828</v>
       </c>
       <c r="AR140" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="AS140" t="s">
         <v>487</v>
@@ -34978,7 +35081,7 @@
         <v>288</v>
       </c>
       <c r="AX140" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AY140" t="s">
         <v>487</v>
@@ -34999,19 +35102,19 @@
         <v>487</v>
       </c>
       <c r="BN140" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="BO140">
         <v>220</v>
       </c>
       <c r="BS140" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="BT140" t="s">
         <v>487</v>
       </c>
       <c r="BU140" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="BV140" t="s">
         <v>487</v>
@@ -35024,12 +35127,12 @@
         <v>1.2797000000000001</v>
       </c>
       <c r="CP140" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="141" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C141">
         <v>144</v>
@@ -35038,7 +35141,7 @@
         <v>762</v>
       </c>
       <c r="E141" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="F141" t="s">
         <v>973</v>
@@ -35057,7 +35160,7 @@
         <v>167</v>
       </c>
       <c r="O141" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="P141">
         <v>2021</v>
@@ -35069,10 +35172,10 @@
         <v>763</v>
       </c>
       <c r="T141" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="U141" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="W141">
         <v>116000</v>
@@ -35093,13 +35196,13 @@
         <v>13</v>
       </c>
       <c r="AJ141" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="AM141" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AN141" t="s">
         <v>1144</v>
-      </c>
-      <c r="AN141" t="s">
-        <v>1145</v>
       </c>
       <c r="AQ141" t="s">
         <v>769</v>
@@ -35144,7 +35247,7 @@
         <v>98</v>
       </c>
       <c r="BW141" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="CC141">
         <v>41260</v>
@@ -35156,15 +35259,15 @@
         <v>100</v>
       </c>
       <c r="CP141" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="142" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B142" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C142">
         <v>145</v>
@@ -35173,7 +35276,7 @@
         <v>487</v>
       </c>
       <c r="E142" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F142" t="s">
         <v>973</v>
@@ -35186,7 +35289,7 @@
       </c>
       <c r="J142" s="2"/>
       <c r="K142" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="L142">
         <v>600</v>
@@ -35200,7 +35303,7 @@
         <v>6</v>
       </c>
       <c r="O142" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="P142">
         <v>2021</v>
@@ -35245,13 +35348,13 @@
         <v>173</v>
       </c>
       <c r="AJ142" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AL142">
         <v>14.3</v>
       </c>
       <c r="AM142" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="AN142" t="s">
         <v>487</v>
@@ -35281,15 +35384,15 @@
         <v>487</v>
       </c>
       <c r="CP142" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="143" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B143" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C143">
         <v>146</v>
@@ -35298,7 +35401,7 @@
         <v>487</v>
       </c>
       <c r="E143" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F143" t="s">
         <v>973</v>
@@ -35311,7 +35414,7 @@
       </c>
       <c r="J143" s="2"/>
       <c r="K143" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="L143">
         <v>640</v>
@@ -35325,7 +35428,7 @@
         <v>5.8181818181818183</v>
       </c>
       <c r="O143" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="P143">
         <v>2022</v>
@@ -35340,7 +35443,7 @@
         <v>807</v>
       </c>
       <c r="T143" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="X143">
         <v>5060</v>
@@ -35367,13 +35470,13 @@
         <v>173</v>
       </c>
       <c r="AJ143" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AL143">
         <v>3.15</v>
       </c>
       <c r="AM143" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="AN143" t="s">
         <v>487</v>
@@ -35382,7 +35485,7 @@
         <v>828</v>
       </c>
       <c r="AR143" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AS143" t="s">
         <v>487</v>
@@ -35394,7 +35497,7 @@
         <v>288</v>
       </c>
       <c r="AX143" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AY143" t="s">
         <v>487</v>
@@ -35418,13 +35521,13 @@
         <v>600</v>
       </c>
       <c r="BJ143" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="BK143" t="s">
         <v>487</v>
       </c>
       <c r="BU143" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="BV143" t="s">
         <v>487</v>
@@ -35446,12 +35549,12 @@
         <v>24.3</v>
       </c>
       <c r="CP143" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="144" spans="1:94" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C144">
         <v>147</v>
@@ -35460,7 +35563,7 @@
         <v>257</v>
       </c>
       <c r="E144" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F144" t="s">
         <v>119</v>
@@ -35469,7 +35572,7 @@
         <v>4.26</v>
       </c>
       <c r="K144" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="L144">
         <v>5.6</v>
@@ -35479,22 +35582,22 @@
         <v>1.3145539906103285</v>
       </c>
       <c r="O144" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="Q144">
         <v>2021</v>
       </c>
       <c r="R144" t="s">
+        <v>1159</v>
+      </c>
+      <c r="S144" t="s">
         <v>1160</v>
       </c>
-      <c r="S144" t="s">
+      <c r="T144" t="s">
         <v>1161</v>
       </c>
-      <c r="T144" t="s">
-        <v>1162</v>
-      </c>
       <c r="U144" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="V144">
         <v>1800</v>
@@ -35503,7 +35606,7 @@
         <v>0.311</v>
       </c>
       <c r="AE144" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AF144">
         <v>2020</v>
@@ -35515,13 +35618,13 @@
         <v>173</v>
       </c>
       <c r="AJ144" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AO144" t="s">
         <v>1164</v>
       </c>
-      <c r="AO144" t="s">
+      <c r="AR144" t="s">
         <v>1165</v>
-      </c>
-      <c r="AR144" t="s">
-        <v>1166</v>
       </c>
       <c r="AS144" t="s">
         <v>257</v>
@@ -35542,7 +35645,7 @@
         <v>199</v>
       </c>
       <c r="BD144" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="BE144" t="s">
         <v>163</v>
@@ -35569,7 +35672,7 @@
         <v>257</v>
       </c>
       <c r="BU144" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="BV144" t="s">
         <v>163</v>
@@ -35587,12 +35690,12 @@
         <v>800</v>
       </c>
       <c r="CP144" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="145" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C145">
         <v>148</v>
@@ -35601,7 +35704,7 @@
         <v>257</v>
       </c>
       <c r="E145" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F145" t="s">
         <v>973</v>
@@ -35610,10 +35713,10 @@
         <v>4</v>
       </c>
       <c r="K145" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="O145" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="P145">
         <v>2020</v>
@@ -35622,16 +35725,16 @@
         <v>2021</v>
       </c>
       <c r="R145" t="s">
+        <v>1159</v>
+      </c>
+      <c r="S145" t="s">
         <v>1160</v>
       </c>
-      <c r="S145" t="s">
-        <v>1161</v>
-      </c>
       <c r="T145" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="U145" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="V145" s="1">
         <v>1800</v>
@@ -35640,7 +35743,7 @@
         <v>0.311</v>
       </c>
       <c r="AE145" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AF145">
         <v>2020</v>
@@ -35652,10 +35755,10 @@
         <v>173</v>
       </c>
       <c r="AJ145" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AR145" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="AS145" t="s">
         <v>257</v>
@@ -35670,7 +35773,7 @@
         <v>16</v>
       </c>
       <c r="BL145" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="BM145" t="s">
         <v>487</v>
@@ -35682,15 +35785,15 @@
         <v>469</v>
       </c>
       <c r="CP145" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="146" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B146" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C146">
         <v>149</v>
@@ -35699,7 +35802,7 @@
         <v>487</v>
       </c>
       <c r="E146" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F146" t="s">
         <v>973</v>
@@ -35712,7 +35815,7 @@
       </c>
       <c r="J146" s="2"/>
       <c r="K146" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="L146">
         <v>600</v>
@@ -35725,7 +35828,7 @@
         <v>6</v>
       </c>
       <c r="O146" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="P146">
         <v>2022</v>
@@ -35740,10 +35843,10 @@
         <v>807</v>
       </c>
       <c r="T146" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="U146" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="V146">
         <v>1683</v>
@@ -35773,22 +35876,22 @@
         <v>173</v>
       </c>
       <c r="AJ146" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AM146" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="AN146" t="s">
         <v>487</v>
       </c>
       <c r="AO146" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="AQ146" t="s">
         <v>828</v>
       </c>
       <c r="AR146" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="AS146" t="s">
         <v>487</v>
@@ -35800,7 +35903,7 @@
         <v>288</v>
       </c>
       <c r="AX146" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="AY146" t="s">
         <v>487</v>
@@ -35809,7 +35912,7 @@
         <v>199</v>
       </c>
       <c r="BL146" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="BM146" t="s">
         <v>487</v>
@@ -35818,7 +35921,7 @@
         <v>200.5</v>
       </c>
       <c r="BU146" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="BV146" t="s">
         <v>487</v>
@@ -35827,15 +35930,15 @@
         <v>26964</v>
       </c>
       <c r="CP146" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="147" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B147" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C147">
         <v>150</v>
@@ -35844,7 +35947,7 @@
         <v>487</v>
       </c>
       <c r="E147" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F147" t="s">
         <v>973</v>
@@ -35857,7 +35960,7 @@
       </c>
       <c r="J147" s="2"/>
       <c r="K147" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="L147">
         <v>600</v>
@@ -35870,7 +35973,7 @@
         <v>6</v>
       </c>
       <c r="O147" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="P147">
         <v>2022</v>
@@ -35915,22 +36018,22 @@
         <v>173</v>
       </c>
       <c r="AJ147" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AM147" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AN147" t="s">
         <v>487</v>
       </c>
       <c r="AO147" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="AQ147" t="s">
         <v>828</v>
       </c>
       <c r="AR147" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="AS147" t="s">
         <v>487</v>
@@ -35964,15 +36067,15 @@
         <v>2.1666666666666665</v>
       </c>
       <c r="CP147" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="148" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B148" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C148">
         <v>151</v>
@@ -35981,7 +36084,7 @@
         <v>487</v>
       </c>
       <c r="E148" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F148" t="s">
         <v>973</v>
@@ -35994,7 +36097,7 @@
       </c>
       <c r="J148" s="2"/>
       <c r="K148" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="L148">
         <v>900</v>
@@ -36007,7 +36110,7 @@
         <v>9</v>
       </c>
       <c r="O148" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="P148">
         <v>2023</v>
@@ -36019,10 +36122,10 @@
         <v>943</v>
       </c>
       <c r="S148" t="s">
+        <v>1228</v>
+      </c>
+      <c r="T148" t="s">
         <v>1229</v>
-      </c>
-      <c r="T148" t="s">
-        <v>1230</v>
       </c>
       <c r="X148">
         <v>5710</v>
@@ -36034,19 +36137,19 @@
         <v>2023</v>
       </c>
       <c r="AJ148" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AL148">
         <v>2.5</v>
       </c>
       <c r="AM148" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AN148" t="s">
         <v>487</v>
       </c>
       <c r="AR148" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AS148" t="s">
         <v>487</v>
@@ -36064,13 +36167,13 @@
         <v>782</v>
       </c>
       <c r="BN148" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="BS148" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="BU148" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="BV148" t="s">
         <v>487</v>
@@ -36090,15 +36193,15 @@
         <v>30</v>
       </c>
       <c r="CP148" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="149" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B149" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C149">
         <v>152</v>
@@ -36107,7 +36210,7 @@
         <v>487</v>
       </c>
       <c r="E149" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F149" t="s">
         <v>973</v>
@@ -36120,7 +36223,7 @@
       </c>
       <c r="J149" s="2"/>
       <c r="K149" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="L149">
         <v>900</v>
@@ -36133,7 +36236,7 @@
         <v>9</v>
       </c>
       <c r="O149" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="P149">
         <v>2022</v>
@@ -36145,13 +36248,13 @@
         <v>943</v>
       </c>
       <c r="S149" t="s">
+        <v>1230</v>
+      </c>
+      <c r="T149" t="s">
         <v>1231</v>
       </c>
-      <c r="T149" t="s">
-        <v>1232</v>
-      </c>
       <c r="U149" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="V149">
         <v>1767</v>
@@ -36176,19 +36279,19 @@
         <v>2001</v>
       </c>
       <c r="AJ149" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AL149">
         <v>18.8</v>
       </c>
       <c r="AM149" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AN149" t="s">
         <v>487</v>
       </c>
       <c r="AR149" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="AS149" t="s">
         <v>487</v>
@@ -36227,15 +36330,15 @@
         <v>200</v>
       </c>
       <c r="CP149" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="150" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B150" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C150">
         <v>153</v>
@@ -36244,7 +36347,7 @@
         <v>487</v>
       </c>
       <c r="E150" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F150" t="s">
         <v>973</v>
@@ -36260,7 +36363,7 @@
         <v>0.17191780821917807</v>
       </c>
       <c r="K150" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="L150">
         <v>900</v>
@@ -36270,7 +36373,7 @@
         <v>9</v>
       </c>
       <c r="O150" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="P150">
         <v>2023</v>
@@ -36282,10 +36385,10 @@
         <v>943</v>
       </c>
       <c r="S150" t="s">
+        <v>1230</v>
+      </c>
+      <c r="T150" t="s">
         <v>1231</v>
-      </c>
-      <c r="T150" t="s">
-        <v>1232</v>
       </c>
       <c r="V150">
         <v>1767</v>
@@ -36313,16 +36416,16 @@
         <v>12</v>
       </c>
       <c r="AJ150" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AM150" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="AN150" t="s">
         <v>487</v>
       </c>
       <c r="AR150" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="AS150" t="s">
         <v>487</v>
@@ -36355,15 +36458,15 @@
         <v>2000</v>
       </c>
       <c r="CP150" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="151" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B151" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C151">
         <v>154</v>
@@ -36372,7 +36475,7 @@
         <v>487</v>
       </c>
       <c r="E151" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F151" t="s">
         <v>973</v>
@@ -36381,7 +36484,7 @@
         <v>100</v>
       </c>
       <c r="K151" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="L151">
         <v>1000</v>
@@ -36392,7 +36495,7 @@
         <v>10</v>
       </c>
       <c r="O151" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="P151">
         <v>2023</v>
@@ -36407,19 +36510,19 @@
         <v>652</v>
       </c>
       <c r="T151" t="s">
+        <v>1260</v>
+      </c>
+      <c r="U151" t="s">
         <v>1261</v>
-      </c>
-      <c r="U151" t="s">
-        <v>1262</v>
       </c>
       <c r="V151">
         <v>1713</v>
       </c>
       <c r="AJ151" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AM151" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="AN151" t="s">
         <v>487</v>
@@ -36444,12 +36547,12 @@
         <v>115.75</v>
       </c>
       <c r="CP151" s="4" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="152" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C152">
         <v>155</v>
@@ -36458,7 +36561,7 @@
         <v>257</v>
       </c>
       <c r="E152" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F152" t="s">
         <v>973</v>
@@ -36467,31 +36570,31 @@
         <v>4</v>
       </c>
       <c r="K152" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="O152" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="P152">
         <v>2022</v>
       </c>
       <c r="R152" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="S152" t="s">
+        <v>1249</v>
+      </c>
+      <c r="T152" t="s">
+        <v>1248</v>
+      </c>
+      <c r="U152" t="s">
         <v>1250</v>
-      </c>
-      <c r="T152" t="s">
-        <v>1249</v>
-      </c>
-      <c r="U152" t="s">
-        <v>1251</v>
       </c>
       <c r="V152">
         <v>1737</v>
       </c>
       <c r="AJ152" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AV152" t="s">
         <v>782</v>
@@ -36515,15 +36618,15 @@
         <v>84000</v>
       </c>
       <c r="CP152" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="153" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B153" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C153">
         <v>156</v>
@@ -36532,7 +36635,7 @@
         <v>487</v>
       </c>
       <c r="E153" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F153" t="s">
         <v>973</v>
@@ -36541,7 +36644,7 @@
         <v>100</v>
       </c>
       <c r="K153" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="L153">
         <v>900</v>
@@ -36554,7 +36657,7 @@
         <v>9</v>
       </c>
       <c r="O153" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="P153">
         <v>2023</v>
@@ -36569,25 +36672,25 @@
         <v>652</v>
       </c>
       <c r="T153" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="U153" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="V153">
         <v>1723</v>
       </c>
       <c r="AJ153" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AM153" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="AN153" t="s">
         <v>487</v>
       </c>
       <c r="AR153" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="AS153" t="s">
         <v>487</v>
@@ -36599,20 +36702,385 @@
         <v>288</v>
       </c>
       <c r="BN153" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="BU153" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="BV153" t="s">
         <v>487</v>
       </c>
       <c r="CP153" t="s">
-        <v>1279</v>
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="154" spans="1:94" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C154">
+        <v>157</v>
+      </c>
+      <c r="D154" t="s">
+        <v>86</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F154" t="s">
+        <v>973</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="K154" t="s">
+        <v>167</v>
+      </c>
+      <c r="L154">
+        <v>0.4</v>
+      </c>
+      <c r="O154" t="s">
+        <v>1310</v>
+      </c>
+      <c r="P154">
+        <v>2022</v>
+      </c>
+      <c r="Q154">
+        <v>2025</v>
+      </c>
+      <c r="R154" t="s">
+        <v>1126</v>
+      </c>
+      <c r="S154" t="s">
+        <v>1304</v>
+      </c>
+      <c r="T154" t="s">
+        <v>1127</v>
+      </c>
+      <c r="U154" t="s">
+        <v>1311</v>
+      </c>
+      <c r="W154">
+        <v>24</v>
+      </c>
+      <c r="Y154" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z154">
+        <v>2022</v>
+      </c>
+      <c r="AJ154" t="s">
+        <v>1317</v>
+      </c>
+      <c r="AL154">
+        <v>0.17</v>
+      </c>
+      <c r="AM154" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AN154" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO154" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AP154" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AR154" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AS154" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT154" t="s">
+        <v>1320</v>
+      </c>
+      <c r="AU154" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV154" t="s">
+        <v>1321</v>
+      </c>
+      <c r="AW154" s="9" t="s">
+        <v>1322</v>
+      </c>
+      <c r="BA154" t="s">
+        <v>1323</v>
+      </c>
+      <c r="BB154">
+        <v>250</v>
+      </c>
+      <c r="BD154" t="s">
+        <v>1324</v>
+      </c>
+      <c r="BE154" t="s">
+        <v>98</v>
+      </c>
+      <c r="BF154" t="s">
+        <v>217</v>
+      </c>
+      <c r="BG154" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH154">
+        <v>6</v>
+      </c>
+      <c r="BI154" t="s">
+        <v>1325</v>
+      </c>
+      <c r="BJ154" t="s">
+        <v>1121</v>
+      </c>
+      <c r="BK154" t="s">
+        <v>98</v>
+      </c>
+      <c r="BL154" t="s">
+        <v>1121</v>
+      </c>
+      <c r="BM154" t="s">
+        <v>98</v>
+      </c>
+      <c r="BN154" t="s">
+        <v>1326</v>
+      </c>
+      <c r="BO154">
+        <v>60</v>
+      </c>
+      <c r="BQ154">
+        <v>600</v>
+      </c>
+      <c r="BR154">
+        <v>800</v>
+      </c>
+      <c r="BS154" t="s">
+        <v>1303</v>
+      </c>
+      <c r="BT154" t="s">
+        <v>98</v>
+      </c>
+      <c r="BU154" t="s">
+        <v>1121</v>
+      </c>
+      <c r="BV154" t="s">
+        <v>98</v>
+      </c>
+      <c r="BW154" t="s">
+        <v>1303</v>
+      </c>
+      <c r="BX154" t="s">
+        <v>1307</v>
+      </c>
+      <c r="BY154" t="s">
+        <v>98</v>
+      </c>
+      <c r="CB154" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="CC154">
+        <v>222</v>
+      </c>
+      <c r="CO154">
+        <v>4</v>
+      </c>
+      <c r="CP154" s="4" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="155" spans="1:94" x14ac:dyDescent="0.35">
+      <c r="A155" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C155" s="8">
+        <v>158</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>973</v>
+      </c>
+      <c r="G155" s="8">
+        <v>2</v>
+      </c>
+      <c r="H155" s="8">
+        <v>6</v>
+      </c>
+      <c r="I155" s="8">
+        <v>11</v>
+      </c>
+      <c r="J155" s="2">
+        <f>H155/(G155*365*24/1000)</f>
+        <v>0.34246575342465752</v>
+      </c>
+      <c r="K155" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="L155" s="8">
+        <v>2</v>
+      </c>
+      <c r="O155" s="8" t="s">
+        <v>1312</v>
+      </c>
+      <c r="P155" s="8">
+        <v>2023</v>
+      </c>
+      <c r="Q155" s="8">
+        <v>2026</v>
+      </c>
+      <c r="R155" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="S155" s="8"/>
+      <c r="T155" s="8" t="s">
+        <v>1313</v>
+      </c>
+      <c r="U155" s="8" t="s">
+        <v>1314</v>
+      </c>
+      <c r="V155" s="8">
+        <v>2592</v>
+      </c>
+      <c r="W155" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y155" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z155" s="8">
+        <v>2023</v>
+      </c>
+      <c r="AA155" s="8"/>
+      <c r="AB155" s="8"/>
+      <c r="AJ155" s="8" t="s">
+        <v>1318</v>
+      </c>
+      <c r="AL155" s="8">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AM155" s="9" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AN155" s="8" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AO155" s="9" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AP155" s="9" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AQ155" s="9" t="s">
+        <v>1340</v>
+      </c>
+      <c r="AR155" s="9"/>
+      <c r="AS155" s="9"/>
+      <c r="AT155" s="9" t="s">
+        <v>1330</v>
+      </c>
+      <c r="AU155" s="9" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AV155" s="9" t="s">
+        <v>1331</v>
+      </c>
+      <c r="AW155" s="9" t="s">
+        <v>1322</v>
+      </c>
+      <c r="AX155" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AY155" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ155" s="8" t="s">
+        <v>1332</v>
+      </c>
+      <c r="BA155" t="s">
+        <v>1333</v>
+      </c>
+      <c r="BB155" s="8">
+        <v>8</v>
+      </c>
+      <c r="BC155" s="8">
+        <v>26</v>
+      </c>
+      <c r="BD155" s="8" t="s">
+        <v>1334</v>
+      </c>
+      <c r="BE155" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="BF155" s="8"/>
+      <c r="BG155" s="8" t="s">
+        <v>1335</v>
+      </c>
+      <c r="BH155" s="8">
+        <v>6</v>
+      </c>
+      <c r="BI155" s="9" t="s">
+        <v>1336</v>
+      </c>
+      <c r="BJ155" s="8" t="s">
+        <v>1337</v>
+      </c>
+      <c r="BK155" s="8" t="s">
+        <v>1329</v>
+      </c>
+      <c r="BL155" s="8"/>
+      <c r="BM155" s="8"/>
+      <c r="BN155" s="8" t="s">
+        <v>1338</v>
+      </c>
+      <c r="BO155" s="8">
+        <v>52</v>
+      </c>
+      <c r="BP155" s="8"/>
+      <c r="BQ155" s="8">
+        <v>580</v>
+      </c>
+      <c r="BR155" s="8">
+        <v>1050</v>
+      </c>
+      <c r="BS155" s="8"/>
+      <c r="BT155" s="8"/>
+      <c r="BU155" s="8"/>
+      <c r="BV155" s="8"/>
+      <c r="BW155" s="8"/>
+      <c r="BX155" s="8"/>
+      <c r="BY155" s="8"/>
+      <c r="BZ155" s="8"/>
+      <c r="CA155" s="8">
+        <v>16000</v>
+      </c>
+      <c r="CB155" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="CC155" s="8"/>
+      <c r="CD155" s="8"/>
+      <c r="CE155" s="8"/>
+      <c r="CF155" s="8"/>
+      <c r="CG155" s="8"/>
+      <c r="CH155" s="8"/>
+      <c r="CI155" s="8"/>
+      <c r="CJ155" s="8"/>
+      <c r="CK155" s="8"/>
+      <c r="CL155" s="8"/>
+      <c r="CM155" s="8"/>
+      <c r="CN155" s="8"/>
+      <c r="CO155" s="8"/>
+      <c r="CP155" s="8" t="s">
+        <v>1339</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CP153" xr:uid="{932C9696-B96D-4ED0-ACF8-5A8E00AFA897}">
+  <autoFilter ref="A1:CP155" xr:uid="{932C9696-B96D-4ED0-ACF8-5A8E00AFA897}">
     <filterColumn colId="5">
       <filters>
         <filter val="Under Construction"/>
@@ -36623,9 +37091,10 @@
     <hyperlink ref="CP142" r:id="rId1" xr:uid="{95A8399A-BBEB-4AEC-AC61-00DD79E78D20}"/>
     <hyperlink ref="CP146" r:id="rId2" xr:uid="{AD04AB5D-9B01-4A1C-814D-7AD342F34DF4}"/>
     <hyperlink ref="CP151" r:id="rId3" display="https://www.gem.wiki/Qinghai_Golmud_(Three_Gorges)_1100_MW_solar_power_plant" xr:uid="{A36A01A3-545B-4457-AECF-104A0E5E8B22}"/>
+    <hyperlink ref="CP154" r:id="rId4" xr:uid="{B3AF179F-BCD3-424E-BAFE-6C666024F4D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -36634,71 +37103,71 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1219</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B4" t="s">
         <v>1214</v>
       </c>
-      <c r="B4" t="s">
-        <v>1215</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B6" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>1221</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>1223</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>1224</v>
       </c>
     </row>
   </sheetData>

--- a/csp-guru/csp-guru.xlsx
+++ b/csp-guru/csp-guru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9dc17ffb94daae5c/Documents/GitHub/csp-guru/csp-guru/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="634" documentId="13_ncr:1_{093ED339-6936-4CC1-B3D4-C8350AA4EC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{178636AD-701E-41D7-B0ED-65B37D8B5741}"/>
+  <xr:revisionPtr revIDLastSave="643" documentId="13_ncr:1_{093ED339-6936-4CC1-B3D4-C8350AA4EC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0420DE7C-04F1-49BE-A36C-F06F545851EF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="1" xr2:uid="{CBAE575A-07C4-4BF8-8763-A77EB57639B5}"/>
   </bookViews>
@@ -4495,10 +4495,10 @@
   <dimension ref="A1:CP155"/>
   <sheetViews>
     <sheetView zoomScale="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D119" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D152" sqref="D152"/>
+      <selection pane="bottomRight" activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32048,7 +32048,7 @@
         <v>1025</v>
       </c>
       <c r="P124">
-        <v>100</v>
+        <v>2014</v>
       </c>
       <c r="Q124">
         <v>2021</v>
@@ -37102,9 +37102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A22E0AF-49D6-4719-823A-410668FCC514}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
